--- a/biology/Médecine/Médaille_Moxon/Médaille_Moxon.xlsx
+++ b/biology/Médecine/Médaille_Moxon/Médaille_Moxon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Moxon</t>
+          <t>Médaille_Moxon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Moxon a été créée en 1886. Il s'agit d'un prix triennal décerné par le Royal College of Physicians pour récompenser une personne qui a produit des observations et des recherches distinguées en médecine clinique et ne se limite pas aux sujets britanniques.
-Le prix est nommé d'après le Dr Walter Moxon FRCP (1836–86), un médecin éminent qui a pratiqué, enseigné et effectué des recherches médicales à l'hôpital Guy's à Londres, en Angleterre[1].
+Le prix est nommé d'après le Dr Walter Moxon FRCP (1836–86), un médecin éminent qui a pratiqué, enseigné et effectué des recherches médicales à l'hôpital Guy's à Londres, en Angleterre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Moxon</t>
+          <t>Médaille_Moxon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,33 +524,35 @@
           <t>Médaillés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2022 Prof Wei Shen Lim[2]
-2015 Prof Thomas Solomon CBE[3]
-1990 John Richard Anthony Mitchell[4]
-1984 Arthur Norman Exton-Smith CBE[5]
-1978 Sir Francis Avery Jones CBE[6]
-1972 Cuthbert Leslie Cope[7]
-1970 Sir John McMichael[8]
-1966 John Maurice Hardman Campbell OBE[9]; Joseph Harold Sheldon CBE[10]
-1957 Sir John Parkinson[11]
-1951 Sir Arthur William Mickle Ellis OBE[12]
-1948 Brigadier Sir Neil Hamilton Fairley[13]
-1945 Sir Alexander Fleming[14]
-1942 Sir Leonard Gregory Parsons[15]
-1939 Sir Arthur Frederick Hurst[16]
-1933 George Richards Minot[17]
-1930 Frederick Parkes Weber[18]
-1927 Sir Henry Head[19]
-1924 Sir Leonard Rogers[20]
-1921 Sir Thomas Clifford Allbutt[21]
-1918 Sir Frederick Walker Mott[22]
-1912 Sir David Ferrier[23]
-1909 Sir William Gowers[24]
-1906 Sir Jonathan Hutchinson[25]
-1897 Sir Samuel Wilks[26]
-1891 Sir Alfred Baring Garrod[27]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2022 Prof Wei Shen Lim
+2015 Prof Thomas Solomon CBE
+1990 John Richard Anthony Mitchell
+1984 Arthur Norman Exton-Smith CBE
+1978 Sir Francis Avery Jones CBE
+1972 Cuthbert Leslie Cope
+1970 Sir John McMichael
+1966 John Maurice Hardman Campbell OBE; Joseph Harold Sheldon CBE
+1957 Sir John Parkinson
+1951 Sir Arthur William Mickle Ellis OBE
+1948 Brigadier Sir Neil Hamilton Fairley
+1945 Sir Alexander Fleming
+1942 Sir Leonard Gregory Parsons
+1939 Sir Arthur Frederick Hurst
+1933 George Richards Minot
+1930 Frederick Parkes Weber
+1927 Sir Henry Head
+1924 Sir Leonard Rogers
+1921 Sir Thomas Clifford Allbutt
+1918 Sir Frederick Walker Mott
+1912 Sir David Ferrier
+1909 Sir William Gowers
+1906 Sir Jonathan Hutchinson
+1897 Sir Samuel Wilks
+1891 Sir Alfred Baring Garrod</t>
         </is>
       </c>
     </row>
